--- a/Result_sheet2.xlsx
+++ b/Result_sheet2.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -86,7 +86,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="distributed" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1">
@@ -97,7 +97,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="center" vertical="distributed" wrapText="1" shrinkToFit="1"/>
       <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="2">
@@ -107,8 +107,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7684305312580275936" xfId="1" hidden="0"/>
-    <cellStyle name="4305851342610746741" xfId="2" hidden="0"/>
+    <cellStyle name="-1794133924098789331" xfId="1" hidden="0"/>
+    <cellStyle name="-220840077446006571" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
@@ -416,10 +416,10 @@
     <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
-    <col width="25" customWidth="1" min="7" max="7"/>
-    <col width="25" customWidth="1" min="8" max="8"/>
-    <col width="25" customWidth="1" min="9" max="9"/>
+    <col width="30" customWidth="1" min="6" max="6"/>
+    <col width="30" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="9" max="9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -476,16 +476,16 @@
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-15</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>16</v>
@@ -507,16 +507,16 @@
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>-19</v>
+        <v>-4</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-10</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="n">
         <v>20</v>
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>35</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F4" s="2" t="n">
         <v>2</v>
@@ -575,10 +575,10 @@
         <v>37</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>1</v>
@@ -600,16 +600,16 @@
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>21</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>5</v>
@@ -631,16 +631,16 @@
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>-3</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>15</v>
@@ -668,10 +668,10 @@
         <v>27</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>-15</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>40</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>11</v>
@@ -724,16 +724,16 @@
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D10" s="2" t="n">
         <v>1</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>5</v>
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>15</v>
@@ -764,7 +764,7 @@
         <v>32</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>3</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>32</v>
@@ -795,7 +795,7 @@
         <v>53</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>3</v>
@@ -817,16 +817,16 @@
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>2</v>
@@ -848,16 +848,16 @@
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>33</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>9</v>
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>-10</v>
+        <v>1</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>33</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>4</v>
@@ -910,16 +910,16 @@
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>32</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>1</v>
@@ -944,13 +944,13 @@
         <v>16</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>28</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>10</v>
@@ -1003,16 +1003,16 @@
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>-15</v>
+        <v>-8</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>45</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>-9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>5</v>
@@ -1034,16 +1034,16 @@
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>-3</v>
+        <v>18</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>5</v>
@@ -1065,16 +1065,16 @@
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>3</v>
@@ -1099,13 +1099,13 @@
         <v>26</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
@@ -1127,16 +1127,16 @@
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>-9</v>
+        <v>-4</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>33</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>4</v>
@@ -1158,16 +1158,16 @@
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>1</v>
@@ -1189,16 +1189,16 @@
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>-19</v>
+        <v>-13</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>9</v>
@@ -1220,16 +1220,16 @@
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>-5</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>2</v>
@@ -1251,16 +1251,16 @@
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-19</v>
+        <v>-8</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>12</v>
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>40</v>
@@ -1291,7 +1291,7 @@
         <v>28</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>3</v>
@@ -1313,16 +1313,16 @@
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>-10</v>
+        <v>-7</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-3</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-6</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>4</v>
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>58</v>
@@ -1353,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>4</v>
@@ -1375,16 +1375,16 @@
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>15</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>3</v>
@@ -1406,16 +1406,16 @@
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>-14</v>
+        <v>-6</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-8</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>12</v>
@@ -1468,16 +1468,16 @@
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>-5</v>
+        <v>12</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>5</v>
@@ -1502,13 +1502,13 @@
         <v>-5</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>2</v>
@@ -1530,16 +1530,16 @@
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>-13</v>
+        <v>24</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-19</v>
+        <v>28</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>10</v>
@@ -1561,16 +1561,16 @@
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>33</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>1</v>
@@ -1592,16 +1592,16 @@
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>32</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>3</v>
@@ -1623,16 +1623,16 @@
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>5</v>
@@ -1654,16 +1654,16 @@
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>37</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>2</v>
@@ -1685,16 +1685,16 @@
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>20</v>
@@ -1716,16 +1716,16 @@
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>4</v>
@@ -1750,13 +1750,13 @@
         <v>15</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>53</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
@@ -1778,16 +1778,16 @@
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>4</v>
@@ -1809,16 +1809,16 @@
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>-5</v>
+        <v>-2</v>
       </c>
       <c r="C45" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="D45" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="D45" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E45" s="2" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>3</v>
@@ -1840,16 +1840,16 @@
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>-10</v>
+        <v>13</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>51</v>
+        <v>92</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>7</v>
@@ -1871,16 +1871,16 @@
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>-13</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>-24</v>
+        <v>11</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>8</v>
@@ -1902,16 +1902,16 @@
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>53</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>4</v>
@@ -1933,16 +1933,16 @@
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>-10</v>
+        <v>9</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>35</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>8</v>
@@ -1964,16 +1964,16 @@
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>-14</v>
+        <v>2</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>23</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>-13</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>-4</v>
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>6</v>
@@ -2026,16 +2026,16 @@
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>-19</v>
+        <v>-12</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-20</v>
+        <v>19</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>12</v>
@@ -2057,16 +2057,16 @@
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-15</v>
+        <v>19</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>12</v>
@@ -2088,16 +2088,16 @@
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>-19</v>
+        <v>-6</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>18</v>
@@ -2119,16 +2119,16 @@
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>27</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>10</v>
@@ -2150,16 +2150,16 @@
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>-15</v>
+        <v>11</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>13</v>
@@ -2187,10 +2187,10 @@
         <v>13</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>1</v>
@@ -2212,16 +2212,16 @@
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>6</v>
@@ -2243,16 +2243,16 @@
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-4</v>
+        <v>8</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>-9</v>
+        <v>6</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>7</v>
@@ -2274,16 +2274,16 @@
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>-19</v>
+        <v>-10</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>-8</v>
+        <v>12</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>9</v>
@@ -2305,16 +2305,16 @@
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>6</v>
@@ -2336,16 +2336,16 @@
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>-15</v>
+        <v>5</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>58</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>9</v>
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="C63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D63" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="D63" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="E63" s="2" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>18</v>
@@ -2398,16 +2398,16 @@
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>-15</v>
+        <v>-5</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>-3</v>
+        <v>21</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>-15</v>
+        <v>27</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>9</v>
@@ -2429,16 +2429,16 @@
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>-14</v>
+        <v>11</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>12</v>
@@ -2460,16 +2460,16 @@
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>-13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>-29</v>
+        <v>29</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>25</v>
@@ -2491,16 +2491,16 @@
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>-14</v>
+        <v>1</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>-20</v>
+        <v>13</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>11</v>
@@ -2522,16 +2522,16 @@
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-15</v>
+        <v>-1</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>-9</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>-21</v>
+        <v>32</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>13</v>
@@ -2553,16 +2553,16 @@
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>-5</v>
+        <v>14</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>8</v>
@@ -2584,16 +2584,16 @@
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>-4</v>
+        <v>25</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>6</v>
@@ -2621,10 +2621,10 @@
         <v>23</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>2</v>
@@ -2646,16 +2646,16 @@
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>-19</v>
+        <v>-3</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>11</v>
@@ -2677,16 +2677,16 @@
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>7</v>
@@ -2708,16 +2708,16 @@
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>4</v>
@@ -2739,16 +2739,16 @@
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>-10</v>
+        <v>-4</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>-9</v>
+        <v>-1</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-2</v>
+        <v>28</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>6</v>
@@ -2770,16 +2770,16 @@
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>32</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>-9</v>
+        <v>21</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>1</v>
@@ -2801,16 +2801,16 @@
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>-19</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>-13</v>
+        <v>14</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>-29</v>
+        <v>30</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>17</v>
@@ -2832,16 +2832,16 @@
         </is>
       </c>
       <c r="B78" s="2" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>7</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>4</v>
@@ -2863,16 +2863,16 @@
         </is>
       </c>
       <c r="B79" s="2" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D79" s="2" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>3</v>
@@ -2897,13 +2897,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>49</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>1</v>
@@ -2925,16 +2925,16 @@
         </is>
       </c>
       <c r="B81" s="2" t="n">
-        <v>-10</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>30</v>
       </c>
       <c r="D81" s="2" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>9</v>
@@ -2959,13 +2959,13 @@
         <v>5</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>-4</v>
+        <v>5</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>1</v>
@@ -2987,16 +2987,16 @@
         </is>
       </c>
       <c r="B83" s="2" t="n">
-        <v>-19</v>
+        <v>0</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="D83" s="2" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>-45</v>
+        <v>0</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>25</v>
